--- a/3.활용/활용1/EXAM7_5_2.xlsx
+++ b/3.활용/활용1/EXAM7_5_2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\SQLD-master\3.활용\활용1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14235" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,15 +38,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
+    <t>w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -380,7 +380,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
